--- a/Ebay/Data/Eebay.xlsx
+++ b/Ebay/Data/Eebay.xlsx
@@ -5,15 +5,16 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lazimulhaque/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lazimulhaque/Downloads/TeamAutomation2018-Developer_Joynab/Ebay/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16960" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BUY" sheetId="1" r:id="rId1"/>
     <sheet name="SELL" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Buy</t>
   </si>
@@ -55,13 +56,22 @@
   </si>
   <si>
     <t>Affiliates</t>
+  </si>
+  <si>
+    <t>Daily Deals</t>
+  </si>
+  <si>
+    <t>Gift Cards</t>
+  </si>
+  <si>
+    <t>Help &amp; Contacts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,6 +81,13 @@
     </font>
     <font>
       <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -99,9 +116,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -382,7 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -473,4 +491,35 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>